--- a/GestorReceitas/Setembro/transferenciasTratado.xlsx
+++ b/GestorReceitas/Setembro/transferenciasTratado.xlsx
@@ -614,8 +614,16 @@
       <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mafalda Moreira Costa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>289279429</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -654,12 +662,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duarte Coutinho Moreira, Dinis Coutinho Moreira, duarte moreira, duarte moreira </t>
+          <t xml:space="preserve">Duarte Coutinho Moreira, Dinís Coutinho Moreira , duarte moreira, duarte moreira </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>288353005, 305801384</t>
+          <t>288353005</t>
         </is>
       </c>
     </row>
@@ -805,8 +813,16 @@
       <c r="C17" t="n">
         <v>28.75</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Carolina Filipa Jesus Costa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>306436043</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -981,8 +997,16 @@
       <c r="C25" t="n">
         <v>15</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>298794284, 298794098</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1019,8 +1043,16 @@
       <c r="C27" t="n">
         <v>15</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rodrigo Barbosa Ferreira</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>287499812</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1036,10 +1068,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>matilde vieira , alexandre vieira, matilde vieira</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>Matilde Quaresma Vieira, matilde vieira , alexandre vieira, matilde vieira</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>289953944</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1147,10 +1183,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Leonor Grandim da Silva, leonor silva</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Leonor Gradim da Silva, leonor silva</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>295955694</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1187,8 +1227,16 @@
       <c r="C35" t="n">
         <v>90</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Maria Clara Gomes Marques, Lourenço Gomes Marques</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>falta, 285654349</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1204,10 +1252,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>francisco costa</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Francisco Ferreira da Costa, francisco costa</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>287949320</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1223,10 +1275,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>gustavo pinto</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>gustavo pinto, Gustavo David da Silva Pinto</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>285445626</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1401,8 +1457,16 @@
       <c r="C45" t="n">
         <v>47.5</v>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Letícia Maria Sousa Almeida</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>294517022</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1464,10 +1528,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>éric barbosa</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>Eric Barbosa da Silva</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>287455114</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1550,8 +1618,16 @@
       <c r="C52" t="n">
         <v>25</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gonçalo José Rocha Oliveira</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>304289027</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1567,10 +1643,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Maria Meneses Monteiro, maria monteiro</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>Maria Menezes Monteiro, maria monteiro</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>291519180</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1607,8 +1687,16 @@
       <c r="C55" t="n">
         <v>15</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Rafaela Almeida Lopes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>290242142</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1622,8 +1710,16 @@
       <c r="C56" t="n">
         <v>245</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Leonor Brás Lopes, Clara Brás Lopes</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>306150352, 306151197</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1662,10 +1758,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gonçalo pereira</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>Gonçalo Moreira Pereira, gonçalo pereira</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>295962968</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1740,8 +1840,16 @@
       <c r="C62" t="n">
         <v>57.5</v>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tomás Monteiro Anunciação</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>293160295</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1826,10 +1934,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>afonso santos , afonso santos</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>Afonso Filipe Pereira de Oliveira Santos, afonso santos , afonso santos</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>285738380</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -1843,8 +1955,16 @@
       <c r="C67" t="n">
         <v>7.5</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Diogo André Valadares de Sousa</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>292724411</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -1858,8 +1978,16 @@
       <c r="C68" t="n">
         <v>47.5</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Rodrigo Filipe Viage Teixeira</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>286109921</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -1873,8 +2001,16 @@
       <c r="C69" t="n">
         <v>25</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Clara da Costa Santos</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>307019420</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2003,8 +2139,16 @@
       <c r="C75" t="n">
         <v>32.5</v>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Matilde da Costa Lima</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>303594306</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2066,10 +2210,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">rodrigo carvalho </t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>Rodrigo Miguel Martins Costa Carvalho</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>295015160</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2083,8 +2231,16 @@
       <c r="C79" t="n">
         <v>25</v>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>298794284, 298794098</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2098,8 +2254,16 @@
       <c r="C80" t="n">
         <v>25</v>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>298794284, 298794098</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2113,8 +2277,16 @@
       <c r="C81" t="n">
         <v>7.5</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>298794284, 298794098</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2128,8 +2300,16 @@
       <c r="C82" t="n">
         <v>69.5</v>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Beatriz Oliveira Moreira</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>289996570</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2191,10 +2371,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>maria marques</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>Maria Clara Gomes Marques, maria marques</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>285654349</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -2300,8 +2484,16 @@
       <c r="C90" t="n">
         <v>57.5</v>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Martim Segura Ribeiro</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>305302639</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -2315,8 +2507,16 @@
       <c r="C91" t="n">
         <v>315</v>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Maria Inês Ferreira da Silva, Matilde Ferreira da Silva</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>298838125, 298838222</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -2376,8 +2576,16 @@
       <c r="C94" t="n">
         <v>32.5</v>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Mafalda Moreira Costa</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>289279429</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -2416,12 +2624,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duarte Coutinho Moreira, Dinis Coutinho Moreira, duarte moreira, duarte moreira </t>
+          <t xml:space="preserve">Duarte Coutinho Moreira, Dinís Coutinho Moreira , duarte moreira, duarte moreira </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>288353005, 305801384</t>
+          <t>288353005</t>
         </is>
       </c>
     </row>
@@ -2460,8 +2668,16 @@
       <c r="C98" t="n">
         <v>32.5</v>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Rita Batalha Correia</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>292550553</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -2475,8 +2691,16 @@
       <c r="C99" t="n">
         <v>32.5</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Rodrigo Barbosa Ferreira</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>287499812</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -2490,8 +2714,16 @@
       <c r="C100" t="n">
         <v>3.5</v>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Gonçalo José Rocha Oliveira</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>304289027</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -2505,8 +2737,16 @@
       <c r="C101" t="n">
         <v>25</v>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Rita Maria Faria Silva</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>306482576</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -2589,8 +2829,16 @@
       <c r="C105" t="n">
         <v>32.5</v>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Rafaela Almeida Lopes</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>290242142</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -2650,8 +2898,16 @@
       <c r="C108" t="n">
         <v>22.5</v>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Maria Clara Gomes Marques</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>285654349</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">

--- a/GestorReceitas/Setembro/transferenciasTratado.xlsx
+++ b/GestorReceitas/Setembro/transferenciasTratado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,302 +466,310 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE NUNO RIOS</t>
+          <t>TRF MBWAY DE  MARCO ALMEIDA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>47.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>João Pereira Rios, joão rios, joão Rios, aldeia natal</t>
+          <t>Letícia Maria Sousa Almeida</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>294086803</t>
+          <t>294517022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE NUNO RIOS</t>
+          <t>TRF MBWAY DE FILIPE FERREIRA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>João Pereira Rios, joão rios, joão Rios, aldeia natal</t>
+          <t>Samuel Filipe da Silva Ferreira, samuel ferreira</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>294086803</t>
+          <t>291331734</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE NUNO RIOS</t>
+          <t>TRF MBWAY DE CARLA ANDREIA CUNHA L</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>43.75</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>João Pereira Rios, joão rios, joão Rios, aldeia natal</t>
+          <t>Matilde Loureiro Marques</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>294086803</t>
+          <t>291965016</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  VITOR CORREIA</t>
+          <t>TRF CRED SEPA+ DE DANIELA SOFIA SILVA BARBOSA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Francisco Manuel Lima Correia</t>
+          <t>Eric Barbosa da Silva</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>287525422</t>
+          <t>287455114</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  VITOR CORREIA</t>
+          <t>TRF MBWAY DE CRISTIANA SOUSA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Francisco Manuel Lima Correia</t>
+          <t>Maria Inês Madureira</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>287525422</t>
+          <t>300252730</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  VITOR CORREIA</t>
+          <t>TRF MB DE ANA SOUSA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Francisco Manuel Lima Correia</t>
+          <t>Melissa de Sousa Maia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>287525422</t>
+          <t>306745321</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45569</v>
+        <v>45565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRF MB DE  M FATIMA MOREIRA</t>
+          <t>TRF CRED SEPA+ DE DIOGO ANDRE FARIA PEREIRA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mafalda Moreira Costa</t>
+          <t xml:space="preserve">Leonor Margarida Moreira Faria, leonor faria, leonor faria </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>289279429</t>
+          <t>292614292</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45569</v>
+        <v>45564</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
+          <t>TRF MBWAY DE  SARA ROCHA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Simão Maia Aroso, joão aroso</t>
+          <t>Gonçalo José Rocha Oliveira</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>306789825</t>
+          <t>304289027</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45569</v>
+        <v>45564</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE TIAGO ANDRE SILVA MOREIRA CS</t>
+          <t>TRF MBWAY DE HORACIO MONTEIRO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duarte Coutinho Moreira, Dinís Coutinho Moreira , duarte moreira, duarte moreira </t>
+          <t>Maria Menezes Monteiro, maria monteiro</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>288353005</t>
+          <t>291519180</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45569</v>
+        <v>45563</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE JOAQUIM DA FONSECA MAIA</t>
+          <t>TRF MBWAY DE VALERIE OLIVEIRA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Santiago da Silva Maia, santiago maia</t>
+          <t>Álvaro Miguel Miranda da Costa, álvaro costa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>286559870</t>
+          <t>285029908</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45568</v>
+        <v>45562</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA CONTA SERVICO DE 1002 7404 4881</t>
+          <t>TRF MBWAY DE RUTE ALMEIDA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rafaela Almeida Lopes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>290242142</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45568</v>
+        <v>45562</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE PAULA AZEVEDO</t>
+          <t>TRF CRED SEPA+ DE ALFREDO JOS  ALVES LOPES</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Letícia Azevedo Ferreira, letícia ferreira</t>
+          <t>Leonor Brás Lopes, Clara Brás Lopes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>304693057</t>
+          <t>306150352, 306151197</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45568</v>
+        <v>45562</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE NEUZA ISABEL SILVA MAIA</t>
+          <t>TRF MBWAY DE HELDER MARTINS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maria Maia Ferreira, maria Ferreira, maria ferreira</t>
+          <t>Mafalda Sofia Rodrigues Fragoso, Mafalda Fragoso, mafalda fragoso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>292656050</t>
+          <t>290677599</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45568</v>
+        <v>45561</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE MARIANA ALEXANDRA DA CRUZ LIMA</t>
+          <t>TRF MB DE  CARLOS PEREIRA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -769,413 +777,405 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Susana Beatriz Lima Simões, susana simões, susana simoes , susana simoes</t>
+          <t>Gonçalo Moreira Pereira, gonçalo pereira</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>287620778</t>
+          <t>295962968</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45568</v>
+        <v>45561</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE JOAQUIM DA FONSECA MAIA</t>
+          <t>TRF CRED SEPA+ DE TANIA CARVALHO DIAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Santiago da Silva Maia, santiago maia</t>
+          <t>Lara Beatriz Dias Oliveira, Lara oliveira, lara oliveira, Lara Oliveira</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>286559870</t>
+          <t>289182573</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45567</v>
+        <v>45559</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE ADRIANA RAQUEL JESUS</t>
+          <t>TRF CRED SEPA+ DE ALEXANDRA MARINA M FERRREIRA LOPES</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>28.75</v>
+        <v>32.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Carolina Filipa Jesus Costa</t>
+          <t>Antónia Moreira da Silva, antonia silva</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>306436043</t>
+          <t>288824520</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45567</v>
+        <v>45558</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRF MB DE OLGA CRISTINA SILVA GOMES</t>
+          <t>TRF MBWAY DE SARAH FERREIRA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Gabriela Gomes da Costa, gabriela costa, Gabriela Costa</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>292458118</t>
-        </is>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45567</v>
+        <v>45558</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE RICARDO PEREIRA</t>
+          <t>TRF MBWAY DE  PATRICIA MONTEIRO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>57.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Duarte Ferreira Pereira</t>
+          <t>Tomás Monteiro Anunciação</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>306021153</t>
+          <t>293160295</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45567</v>
+        <v>45558</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE ANDREIA S C SILVA</t>
+          <t>TRF CRED SEPA+ DE SANDRA CRISTINA SILVA GONCALVES</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>70</v>
+        <v>172.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Martim de Carvalho Santos Silva, martim silva , martim silva, andreia silva</t>
+          <t>José Martim Silva Gonçalves, josé martim gonçalves</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>298986752</t>
+          <t>293669155</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45567</v>
+        <v>45555</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE BEATRIZ PEREIRA JOSE</t>
+          <t>TRF MBWAY DE HELDER MARTINS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lucas Pereira José e Silva</t>
+          <t>Mafalda Sofia Rodrigues Fragoso, Mafalda Fragoso, mafalda fragoso</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>294490094</t>
+          <t>290677599</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45567</v>
+        <v>45555</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
+          <t>TRF MBWAY DE CLAUDIA MAIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Simão Maia Aroso, joão aroso</t>
+          <t>Benedita Maia Dias</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>306789825</t>
+          <t>291482376</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45567</v>
+        <v>45555</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRF MB DE ANTONIO ROCHA SILVA</t>
+          <t>TRF MB DE  EDITE OLIVEIRA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gabriel Bogas Silva, gabriel silva</t>
+          <t>Afonso Filipe Pereira de Oliveira Santos, afonso santos , afonso santos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>289954339</t>
+          <t>285738380</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45567</v>
+        <v>45554</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
+          <t>TRF MBWAY DE  JAIME SOUSA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>65</v>
+        <v>7.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dinis Filipe Bessa Santos, maria santos , dinis santos, maria santos</t>
+          <t>Diogo André Valadares de Sousa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>291209890</t>
+          <t>292724411</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45567</v>
+        <v>45554</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
+          <t>TRF MBWAY DE ANA VIAGE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>47.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
+          <t>Rodrigo Filipe Viage Teixeira</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>298794284, 298794098</t>
+          <t>286109921</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45567</v>
+        <v>45554</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE BELARMINO JOSE ROSA SANTOS</t>
+          <t>TRF CRED SEPA+ DE CANDIDO TIAGO ALVES DOS SANTOS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sofia Luísa Pinheiro dos Santos, sofia santos</t>
+          <t>Clara da Costa Santos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>293688036</t>
+          <t>307019420</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45566</v>
+        <v>45554</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE RUI MIGUEL FERREIRA PILOTO</t>
+          <t>TRF CRED SEPA+ DE RICARDO FILIPE DA ROCHA TEIXEIRA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>47.5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Ferreira</t>
+          <t xml:space="preserve">Afonso Filipe Silva Teixeira, afonso teixeira, afonso teixeira </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>287499812</t>
+          <t>289953316</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45566</v>
+        <v>45554</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE JOANA QUARESMA</t>
+          <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Matilde Quaresma Vieira, matilde vieira , alexandre vieira, matilde vieira</t>
+          <t>Dinis Filipe Bessa Santos, maria santos , dinis santos, maria santos</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>289953944</t>
+          <t>291209890</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45566</v>
+        <v>45554</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  VITOR CORREIA</t>
+          <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>125</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Francisco Manuel Lima Correia</t>
+          <t>Dinis Filipe Bessa Santos, maria santos , dinis santos, maria santos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>287525422</t>
+          <t>291209890</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45566</v>
+        <v>45553</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRF CRED INTRAB DE SONIA SOFIA MARTINS DA SILVA</t>
+          <t>TRF CRED SEPA+ DE JOAQUIM DA FONSECA MAIA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santiago Martins da Silva Guedes, santiago guedes </t>
+          <t>Santiago da Silva Maia, santiago maia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>295083212</t>
+          <t>286559870</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45566</v>
+        <v>45553</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRF MB DE CLAUDIA ISABEL AMORIM</t>
+          <t>TRF CRED SEPA+ DE LORENA CRISTINY LEBBER</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Clara Sofia Maia Amorim, clara amorim</t>
+          <t>Christopher Lebber de Souza, Christopher sousa, christopher souza</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>297621556</t>
+          <t>303282355</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRF MB DE CLAUDIA ISABEL AMORIM</t>
+          <t>TRF CRED SEPA+ DE FABIO DANIEL FERREIRA DA COSTA LIMA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Clara Sofia Maia Amorim, clara amorim</t>
+          <t>Matilde da Costa Lima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>297621556</t>
+          <t>303594306</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRF MB DE JOANA FILIPA GRADIM</t>
+          <t>TRF CRED SEPA+ DE ANTONIO JOSE COSTA SOUSA AMORIM</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1183,68 +1183,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Leonor Gradim da Silva, leonor silva</t>
+          <t xml:space="preserve">Mariana da Fonseca Amorim, mariana amorim, mariana amorim </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>295955694</t>
+          <t>288929144</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRF MB DE CLAUDIA ISABEL AMORIM</t>
+          <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>7.5</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Clara Sofia Maia Amorim, clara amorim</t>
+          <t>Simão Maia Aroso, joão aroso</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>297621556</t>
+          <t>306789825</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRF MB DE   MARIA HELENA V GOME</t>
+          <t>TRF CRED SEPA+ DE FRANKLIN COSTA CARVALHO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maria Clara Gomes Marques, Lourenço Gomes Marques</t>
+          <t>Rodrigo Miguel Martins Costa Carvalho</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>falta, 285654349</t>
+          <t>295015160</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE JOSE PEDRO FERREIRA DA COSTA</t>
+          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1252,45 +1252,45 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Francisco Ferreira da Costa, francisco costa</t>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>287949320</t>
+          <t>298794284, 298794098</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE JORGE FILIPE DAMAS PINTO</t>
+          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>47.5</v>
+        <v>25</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>gustavo pinto, Gustavo David da Silva Pinto</t>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>285445626</t>
+          <t>298794284, 298794098</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE SUZETE SOFIA AZEVEDO PEREIRA</t>
+          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1298,68 +1298,68 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mafalda Sofia Pereira Loureiro, mafalda Loureiro , mafalda loureiro </t>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>318126885</t>
+          <t>298794284, 298794098</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE SUZETE SOFIA AZEVEDO PEREIRA</t>
+          <t>TRF CRED SEPA+ DE MARCO JORGE DE SA MOREIRA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>69.5</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mafalda Sofia Pereira Loureiro, mafalda Loureiro , mafalda loureiro </t>
+          <t>Beatriz Oliveira Moreira</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>318126885</t>
+          <t>289996570</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45566</v>
+        <v>45552</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE SUZETE SOFIA AZEVEDO PEREIRA</t>
+          <t>TRF CRED SEPA+ DE ACACIO VITOR ROCHA INACIO</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>47.5</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mafalda Sofia Pereira Loureiro, mafalda Loureiro , mafalda loureiro </t>
+          <t>Ana Beatriz Coelho Inácio, ana beatriz inácio</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>318126885</t>
+          <t>294314008</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45566</v>
+        <v>45551</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE ANDREIA SUSANA GONCALVES SOUSA CS</t>
+          <t>TRF MBWAY DE FILIPE FERREIRA</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1367,41 +1367,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pedro Sousa Carvalho, pedro carvalho , pedro carvalho</t>
+          <t>Samuel Filipe da Silva Ferreira, samuel ferreira</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>294209018</t>
+          <t>291331734</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45566</v>
+        <v>45551</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE ANDREIA SUSANA GONCALVES SOUSA CS</t>
+          <t>TRF MB DE   VITOR MARQUES</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pedro Sousa Carvalho, pedro carvalho , pedro carvalho</t>
+          <t>Maria Clara Gomes Marques, maria marques</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>294209018</t>
+          <t>285654349</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45566</v>
+        <v>45551</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45566</v>
+        <v>45551</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1447,122 +1447,122 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45565</v>
+        <v>45550</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  MARCO ALMEIDA</t>
+          <t>TRF MBWAY DE ANDREIA S C SILVA</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Letícia Maria Sousa Almeida</t>
+          <t>Martim de Carvalho Santos Silva, martim silva , martim silva, andreia silva</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>294517022</t>
+          <t>298986752</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45565</v>
+        <v>45550</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE FILIPE FERREIRA</t>
+          <t>TRF MBWAY DE BEATRIZ PEREIRA JOSE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Samuel Filipe da Silva Ferreira, samuel ferreira</t>
+          <t>Lucas Pereira José e Silva</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>291331734</t>
+          <t>294490094</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45565</v>
+        <v>45550</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE CARLA ANDREIA CUNHA L</t>
+          <t>TRF MBWAY DE  PATRICIA SEGURA</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>43.75</v>
+        <v>57.5</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Matilde Loureiro Marques</t>
+          <t>Martim Segura Ribeiro</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>291965016</t>
+          <t>305302639</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45565</v>
+        <v>45551</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE DANIELA SOFIA SILVA BARBOSA</t>
+          <t>TRF MB DE  CRISTIANA SILVA</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Eric Barbosa da Silva</t>
+          <t>Maria Inês Ferreira da Silva, Matilde Ferreira da Silva</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>287455114</t>
+          <t>298838125, 298838222</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45565</v>
+        <v>45551</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE CRISTIANA SOUSA</t>
+          <t>TRF MB DE ANA SOUSA</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>22.5</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Maria Inês Madureira</t>
+          <t>Melissa de Sousa Maia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>300252730</t>
+          <t>306745321</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45565</v>
+        <v>45551</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1585,172 +1585,172 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45565</v>
+        <v>45551</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE DIOGO ANDRE FARIA PEREIRA</t>
+          <t>TRF MB DE  M FATIMA MOREIRA</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leonor Margarida Moreira Faria, leonor faria, leonor faria </t>
+          <t>Mafalda Moreira Costa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>292614292</t>
+          <t>289279429</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45564</v>
+        <v>45548</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  SARA ROCHA</t>
+          <t>TRF MBWAY DE CRISTIANA SOUSA</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Gonçalo José Rocha Oliveira</t>
+          <t>Maria Inês Madureira</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>304289027</t>
+          <t>300252730</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45564</v>
+        <v>45548</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE HORACIO MONTEIRO</t>
+          <t>TRF CRED SEPA+ DE TIAGO ANDRE SILVA MOREIRA CS</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7.5</v>
+        <v>95</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Maria Menezes Monteiro, maria monteiro</t>
+          <t xml:space="preserve">Duarte Coutinho Moreira, Dinís Coutinho Moreira , duarte moreira, duarte moreira </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>291519180</t>
+          <t>288353005</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45563</v>
+        <v>45548</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE VALERIE OLIVEIRA</t>
+          <t>TRF CRED SEPA+ DE CATIA LILIANA SAMPAIO MONTEIRO</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Álvaro Miguel Miranda da Costa, álvaro costa</t>
+          <t>Tomás Monteiro Cunha, Mateus Monteiro Cunha, tomás cunha, mateus cunha</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>285029908</t>
+          <t>285360124, 303728795</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45562</v>
+        <v>45547</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE RUTE ALMEIDA</t>
+          <t>TRF MBWAY DE  VANIA BATALHA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rafaela Almeida Lopes</t>
+          <t>Rita Batalha Correia</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>290242142</t>
+          <t>292550553</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45562</v>
+        <v>45547</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE ALFREDO JOS  ALVES LOPES</t>
+          <t>TRF MBWAY DE RUI MIGUEL FERREIRA PILOTO</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>245</v>
+        <v>32.5</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Leonor Brás Lopes, Clara Brás Lopes</t>
+          <t>Rodrigo Barbosa Ferreira</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>306150352, 306151197</t>
+          <t>287499812</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45562</v>
+        <v>45547</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE HELDER MARTINS</t>
+          <t>TRF MBWAY DE  SARA ROCHA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mafalda Sofia Rodrigues Fragoso, Mafalda Fragoso, mafalda fragoso</t>
+          <t>Gonçalo José Rocha Oliveira</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>290677599</t>
+          <t>304289027</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45561</v>
+        <v>45547</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRF MB DE  CARLOS PEREIRA</t>
+          <t>TRF CRED SEPA+ DE HELGA ANDREIA MAIA FARIA</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1758,22 +1758,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Gonçalo Moreira Pereira, gonçalo pereira</t>
+          <t>Rita Maria Faria Silva</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>295962968</t>
+          <t>306482576</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45561</v>
+        <v>45547</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE TANIA CARVALHO DIAS</t>
+          <t>TRF CRED SEPA+ DE BELARMINO JOSE ROSA SANTOS</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1781,22 +1781,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lara Beatriz Dias Oliveira, Lara oliveira, lara oliveira, Lara Oliveira</t>
+          <t>Sofia Luísa Pinheiro dos Santos, sofia santos</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>289182573</t>
+          <t>293688036</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45559</v>
+        <v>45546</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE ALEXANDRA MARINA M FERRREIRA LOPES</t>
+          <t>TRF CRED INTRAB DE SONIA SOFIA MARTINS DA SILVA</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1804,1288 +1804,127 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Antónia Moreira da Silva, antonia silva</t>
+          <t xml:space="preserve">Santiago Martins da Silva Guedes, santiago guedes </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>288824520</t>
+          <t>295083212</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45558</v>
+        <v>45546</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE SARAH FERREIRA</t>
+          <t>TRF MBWAY DE PAULA AZEVEDO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+        <v>32.5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Letícia Azevedo Ferreira, letícia ferreira</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>304693057</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45558</v>
+        <v>45545</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE  PATRICIA MONTEIRO</t>
+          <t>TRF MBWAY DE RUTE ALMEIDA</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>57.5</v>
+        <v>32.5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tomás Monteiro Anunciação</t>
+          <t>Rafaela Almeida Lopes</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>293160295</t>
+          <t>290242142</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45558</v>
+        <v>45540</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE SANDRA CRISTINA SILVA GONCALVES</t>
+          <t>TRF MBWAY DE MARCIA TEIXEIRA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>172.5</v>
+        <v>200</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>José Martim Silva Gonçalves, josé martim gonçalves</t>
+          <t>Mateus Teixeira Campos, mateus campos, leonardo campos, aldeia natal</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>293669155</t>
+          <t>294329528</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45555</v>
+        <v>45540</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE HELDER MARTINS</t>
+          <t>TRF CRED SEPA+ DE ANA CATARINA VIEIRA VAZ</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mafalda Sofia Rodrigues Fragoso, Mafalda Fragoso, mafalda fragoso</t>
+          <t>Yara Vaz Oliveira, yara oliveira</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>290677599</t>
+          <t>303919655</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45555</v>
+        <v>45539</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRF MBWAY DE CLAUDIA MAIA</t>
+          <t>TRF MBWAY DE   HELENA GOMES</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32.5</v>
+        <v>22.5</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Benedita Maia Dias</t>
+          <t>Maria Clara Gomes Marques</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>291482376</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TRF MB DE  EDITE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Afonso Filipe Pereira de Oliveira Santos, afonso santos , afonso santos</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>285738380</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE  JAIME SOUSA</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Diogo André Valadares de Sousa</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>292724411</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE ANA VIAGE</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Rodrigo Filipe Viage Teixeira</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>286109921</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE CANDIDO TIAGO ALVES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>25</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Clara da Costa Santos</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>307019420</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE RICARDO FILIPE DA ROCHA TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afonso Filipe Silva Teixeira, afonso teixeira, afonso teixeira </t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>289953316</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>25</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Dinis Filipe Bessa Santos, maria santos , dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>291209890</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45554</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Dinis Filipe Bessa Santos, maria santos , dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>291209890</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45553</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE JOAQUIM DA FONSECA MAIA</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Santiago da Silva Maia, santiago maia</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>286559870</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45553</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE LORENA CRISTINY LEBBER</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Christopher Lebber de Souza, Christopher sousa, christopher souza</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>303282355</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE FABIO DANIEL FERREIRA DA COSTA LIMA</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Matilde da Costa Lima</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>303594306</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE ANTONIO JOSE COSTA SOUSA AMORIM</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mariana da Fonseca Amorim, mariana amorim, mariana amorim </t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>288929144</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Simão Maia Aroso, joão aroso</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>306789825</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE FRANKLIN COSTA CARVALHO</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Rodrigo Miguel Martins Costa Carvalho</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>295015160</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>25</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>298794284, 298794098</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>25</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>298794284, 298794098</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>298794284, 298794098</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE MARCO JORGE DE SA MOREIRA</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Beatriz Oliveira Moreira</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>289996570</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45552</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE ACACIO VITOR ROCHA INACIO</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Ana Beatriz Coelho Inácio, ana beatriz inácio</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>294314008</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE FILIPE FERREIRA</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Samuel Filipe da Silva Ferreira, samuel ferreira</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>291331734</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TRF MB DE   VITOR MARQUES</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>95</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Maria Clara Gomes Marques, maria marques</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
           <t>285654349</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE EURICO SAMUEL GONAALVES CASTELEIRO</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>15</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Júlia Filipa Inácio Gonçalves, Luís Miguel Inácio Gonçalves, júlia gonçalves, luís gonçalves</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>284925683, 294138170</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE EURICO SAMUEL GONAALVES CASTELEIRO</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>50</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Júlia Filipa Inácio Gonçalves, Luís Miguel Inácio Gonçalves, júlia gonçalves, luís gonçalves</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>284925683, 294138170</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>45550</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE ANDREIA S C SILVA</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Martim de Carvalho Santos Silva, martim silva , martim silva, andreia silva</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>298986752</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>45550</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE BEATRIZ PEREIRA JOSE</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Lucas Pereira José e Silva</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>294490094</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>45550</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE  PATRICIA SEGURA</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Martim Segura Ribeiro</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>305302639</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TRF MB DE  CRISTIANA SILVA</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>315</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Maria Inês Ferreira da Silva, Matilde Ferreira da Silva</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>298838125, 298838222</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TRF MB DE ANA SOUSA</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Melissa de Sousa Maia</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>306745321</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TRF MB DE ANA SOUSA</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>25</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Melissa de Sousa Maia</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>306745321</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>TRF MB DE  M FATIMA MOREIRA</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mafalda Moreira Costa</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>289279429</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE CRISTIANA SOUSA</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>50</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Maria Inês Madureira</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>300252730</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE TIAGO ANDRE SILVA MOREIRA CS</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>95</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duarte Coutinho Moreira, Dinís Coutinho Moreira , duarte moreira, duarte moreira </t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>288353005</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>45548</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE CATIA LILIANA SAMPAIO MONTEIRO</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>95</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Tomás Monteiro Cunha, Mateus Monteiro Cunha, tomás cunha, mateus cunha</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>285360124, 303728795</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE  VANIA BATALHA</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Rita Batalha Correia</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>292550553</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE RUI MIGUEL FERREIRA PILOTO</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Rodrigo Barbosa Ferreira</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>287499812</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE  SARA ROCHA</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Gonçalo José Rocha Oliveira</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>304289027</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE HELGA ANDREIA MAIA FARIA</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>25</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Rita Maria Faria Silva</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>306482576</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45547</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE BELARMINO JOSE ROSA SANTOS</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Sofia Luísa Pinheiro dos Santos, sofia santos</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>293688036</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45546</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TRF CRED INTRAB DE SONIA SOFIA MARTINS DA SILVA</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santiago Martins da Silva Guedes, santiago guedes </t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>295083212</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45546</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE PAULA AZEVEDO</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Letícia Azevedo Ferreira, letícia ferreira</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>304693057</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>45545</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE RUTE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Rafaela Almeida Lopes</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>290242142</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE MARCIA TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>200</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Mateus Teixeira Campos, mateus campos, leonardo campos, aldeia natal</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>294329528</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE ANA CATARINA VIEIRA VAZ</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>21</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Yara Vaz Oliveira, yara oliveira</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>303919655</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE   HELENA GOMES</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Maria Clara Gomes Marques</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>285654349</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TRF MB DE ADELINO PEDRO</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>75</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>lara pedro</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>65</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Simão Maia Aroso, joão aroso</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>306789825</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE ALICE ROCHA</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>105</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Duarte Filipe Rocha Silva, duarte silva, Tiago silva</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>294437452</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE CRISTIANA SOUSA</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>125</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Maria Inês Madureira</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>300252730</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>125</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Dinis Filipe Bessa Santos, maria santos , dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>291209890</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE CARINA ANDREIA COELHO MOREIRA</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>125</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Gonçalo Moreira Pereira</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>295962968</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE BRUNO DELFIM OLIVEIRA FERREIRA</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>100</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Afonso Monteiro Ferreira, afonso ferreira</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>300813775</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>45538</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>100</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Simão Maia Aroso, joão aroso</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>306789825</t>
         </is>
       </c>
     </row>

--- a/GestorReceitas/Setembro/transferenciasTratado.xlsx
+++ b/GestorReceitas/Setembro/transferenciasTratado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maria Clara Gomes Marques, maria marques</t>
+          <t>Maria Clara Gomes Marques, Lourenço Gomes Marques, maria marques</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>285654349</t>
+          <t>falta, 285654349</t>
         </is>
       </c>
     </row>
@@ -1856,75 +1856,6 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>290242142</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE MARCIA TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>200</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Mateus Teixeira Campos, mateus campos, leonardo campos, aldeia natal</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>294329528</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TRF CRED SEPA+ DE ANA CATARINA VIEIRA VAZ</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>21</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Yara Vaz Oliveira, yara oliveira</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>303919655</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TRF MBWAY DE   HELENA GOMES</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Maria Clara Gomes Marques</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>285654349</t>
         </is>
       </c>
     </row>

--- a/GestorReceitas/Setembro/transferenciasTratado.xlsx
+++ b/GestorReceitas/Setembro/transferenciasTratado.xlsx
@@ -1643,12 +1643,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Duarte Coutinho Moreira, Dinís Coutinho Moreira , duarte moreira, duarte moreira </t>
+          <t xml:space="preserve">Duarte Coutinho Moreira, Dinis Coutinho Moreira, Dinis Coutinho Moreira , duarte moreira, duarte moreira </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>288353005</t>
+          <t>305801384, 288353005</t>
         </is>
       </c>
     </row>
